--- a/docs/Project File Structure explanation.xlsx
+++ b/docs/Project File Structure explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\Eagles\Car_Clinic_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AE90B-2A6A-4845-8BA8-B759CA6074A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9A8BA-230A-49D8-91B0-A2B15159B627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Structure" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="272">
   <si>
     <t>File</t>
   </si>
@@ -976,453 +976,6 @@
   </si>
   <si>
     <t>Example inputs and outputs for testing/demo.</t>
-  </si>
-  <si>
-    <t>📁 Root Folder: car_clinic_chatbot/</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Level 2               Level 3                Level 4               File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Responsibility &amp; Description</t>
-  </si>
-  <si>
-    <t>───────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────────</t>
-  </si>
-  <si>
-    <t>.github/            workflows/                                 main.yaml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                GitHub Actions workflow for CI/CD + scheduling</t>
-  </si>
-  <si>
-    <t>.                                                              README.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Project overview, setup instructions, usage, etc.</t>
-  </si>
-  <si>
-    <t>.                                                              requirements.txt           Main dependencies</t>
-  </si>
-  <si>
-    <t>.                                                              Dockerfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Containerizes the entire project</t>
-  </si>
-  <si>
-    <t>.                                                              docker-compose.yml         Optional multi-service orchestration</t>
-  </si>
-  <si>
-    <t>.                                                              .env</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Environment variables (excluded via .gitignore)</t>
-  </si>
-  <si>
-    <t>.                                                              .gitignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Ignore sensitive and temporary files</t>
-  </si>
-  <si>
-    <t>.                                                              main.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Entry point for serving the FastAPI app</t>
-  </si>
-  <si>
-    <t>.                                                              prefect_flows.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Centralized Prefect orchestration runner</t>
-  </si>
-  <si>
-    <t>.                                                              llm_prompt_templates.py    Reusable prompt templates for LLMs</t>
-  </si>
-  <si>
-    <t>config/                                                     settings.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Central configuration: paths, API keys, options</t>
-  </si>
-  <si>
-    <t>scripts/                                                    run_cleaning_locally.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    One-off local run for testing cleaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            generate_embeddings_once.py  Script to create embeddings once</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            dev_debug_utils.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Developer debugging helpers</t>
-  </si>
-  <si>
-    <t>logs/                                                       pipeline.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Optional local logging (unless using Prefect Cloud)</t>
-  </si>
-  <si>
-    <t>notebooks/                                                  llm_prompt_tuning.ipynb      Jupyter notebook for tuning LLM prompts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            sample_reddit_analysis.ipynb Reddit EDA and testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            tagging_experiments.ipynb    Tagging logic experiments</t>
-  </si>
-  <si>
-    <t>data/                                                       raw/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Raw scraped Reddit posts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            cleaned/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Structured (problem → solution) cleaned data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            augmented/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Augmented versions: translations, paraphrases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            tagged/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Semantic tags (diagnosis, components, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            embeddings/</t>
-  </si>
-  <si>
-    <t>problems/        Embeddings of user issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                        branches/        Embeddings of Car Clinic branch expertise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            examples.jsonl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Verified labeled examples for development/debugging</t>
-  </si>
-  <si>
-    <t>python_scripts/       reddit_data_extractor/                __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Package init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            config.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Configuration for extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            extractor.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Scrapes Reddit post data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            extractor_Base.py            Base logic for scraping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            flow.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Prefect flow for extraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            reddit_client.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRAW/Reddit API wrapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            scraper.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                HTML/data scraper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            writer.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Writes output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            utils.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Utility functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     reddit_data_cleaner/                   __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Prefect flow for cleaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            cleaner.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Core cleaning logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            llm_cleaner.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Test-cleaner with a sample prompt locally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            llm_runner.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Runs LLM on samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            preprocessor.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Pre-clean processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            postprocessor.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Post-clean enhancements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     data_augmenter/                        __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Flow for augmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            paraphraser.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Rewording logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            translator.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Language translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            noise_injector.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Adds textual noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     tag_generator/                         __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Tagging pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            tagger.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Tagging logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            constants.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Static mappings/constants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     embedding_generator/                   __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Embedding generation pipeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            embedder.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Embedding logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     branch_recommender/                    __init__.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Flow for recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            matcher.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Matches problem vs branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            filters.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Filtering logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            ranker.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Ranks possible branches</t>
-  </si>
-  <si>
-    <t>chatbot/                                                    query_classifier.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Classifies the type of user issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            retriever.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Retrieves relevant past cases or FAQs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            reasoner.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Final reasoning LLM logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            branch_suggester.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Branch recommendation from embeddings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            formatter.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Formats chatbot responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            fallback.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Handles edge cases or failure modes</t>
-  </si>
-  <si>
-    <t>api/                   routes/                              chat.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Chat endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            recommend.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Branch suggestion endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            models.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Pydantic request/response models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            dependencies.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Shared dependencies or security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            server.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                FastAPI app entrypoint</t>
-  </si>
-  <si>
-    <t>tests/                 unit/                                conftest.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Shared pytest fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            test_cleaner.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Unit test for cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            test_embedder.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Unit test for embedder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            ...                          Additional unit tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      integration/                          test_end_to_end_pipeline.py  Integration test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            ...                          Additional integration tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      test_data/                            sample_raw.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Sample input for test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            expected_cleaned.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Expected output</t>
-  </si>
-  <si>
-    <t>docs/                                                      architecture_diagram.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    High-level system overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            dag_flow.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Data flow / execution DAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            embedding_guide.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Explanation of vector logic and model usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            branch_matching.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Explains the ranking and filtering process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            api_schema.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            FastAPI OpenAPI documentation snapshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            sample_output_examples.md    Example inputs and outputs for testing/demo</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE561C9-4085-4BBF-9FDB-09DA6CBD0C38}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1787,1126 +1340,562 @@
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="D5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>89</v>
       </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="D8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>96</v>
       </c>
-      <c r="D15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
-        <v>301</v>
-      </c>
-      <c r="E22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>106</v>
       </c>
-      <c r="D29" t="s">
-        <v>308</v>
-      </c>
-      <c r="E29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="D30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="D31" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>110</v>
       </c>
-      <c r="D35" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>111</v>
       </c>
-      <c r="D36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>112</v>
       </c>
-      <c r="D37" t="s">
-        <v>321</v>
-      </c>
-      <c r="E37" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="D38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E38" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>114</v>
       </c>
-      <c r="D39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>115</v>
       </c>
-      <c r="D40" t="s">
-        <v>326</v>
-      </c>
-      <c r="E40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="D41" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>117</v>
       </c>
-      <c r="D42" t="s">
-        <v>330</v>
-      </c>
-      <c r="E42" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
-        <v>332</v>
-      </c>
-      <c r="E43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="D44" t="s">
-        <v>334</v>
-      </c>
-      <c r="E44" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>118</v>
       </c>
-      <c r="D45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>36</v>
       </c>
-      <c r="D46" t="s">
-        <v>336</v>
-      </c>
-      <c r="E46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="D47" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="D48" t="s">
-        <v>338</v>
-      </c>
-      <c r="E48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" t="s">
-        <v>340</v>
-      </c>
-      <c r="E49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="D50" t="s">
-        <v>342</v>
-      </c>
-      <c r="E50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="D51" t="s">
-        <v>344</v>
-      </c>
-      <c r="E51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>42</v>
       </c>
-      <c r="D52" t="s">
-        <v>346</v>
-      </c>
-      <c r="E52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>119</v>
       </c>
-      <c r="D53" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>120</v>
       </c>
-      <c r="D54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="D55" t="s">
-        <v>348</v>
-      </c>
-      <c r="E55" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>121</v>
       </c>
-      <c r="D56" t="s">
-        <v>326</v>
-      </c>
-      <c r="E56" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>36</v>
       </c>
-      <c r="D57" t="s">
-        <v>350</v>
-      </c>
-      <c r="E57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="D58" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>122</v>
       </c>
-      <c r="D59" t="s">
-        <v>354</v>
-      </c>
-      <c r="E59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
-        <v>334</v>
-      </c>
-      <c r="E60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>124</v>
       </c>
-      <c r="D61" t="s">
-        <v>321</v>
-      </c>
-      <c r="E61" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="D62" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
-        <v>357</v>
-      </c>
-      <c r="E63" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>120</v>
       </c>
-      <c r="D64" t="s">
-        <v>326</v>
-      </c>
-      <c r="E64" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>44</v>
       </c>
-      <c r="D65" t="s">
-        <v>359</v>
-      </c>
-      <c r="E65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="D66" t="s">
-        <v>361</v>
-      </c>
-      <c r="E66" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="D67" t="s">
-        <v>334</v>
-      </c>
-      <c r="E67" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>40</v>
       </c>
-      <c r="D68" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>128</v>
       </c>
-      <c r="D69" t="s">
-        <v>363</v>
-      </c>
-      <c r="E69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>129</v>
       </c>
-      <c r="D70" t="s">
-        <v>326</v>
-      </c>
-      <c r="E70" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>130</v>
       </c>
-      <c r="D71" t="s">
-        <v>365</v>
-      </c>
-      <c r="E71" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>43</v>
       </c>
-      <c r="D72" t="s">
-        <v>334</v>
-      </c>
-      <c r="E72" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>131</v>
       </c>
-      <c r="D73" t="s">
-        <v>321</v>
-      </c>
-      <c r="E73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>44</v>
       </c>
-      <c r="D74" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>132</v>
       </c>
-      <c r="D75" t="s">
-        <v>367</v>
-      </c>
-      <c r="E75" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>36</v>
       </c>
-      <c r="D76" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>40</v>
       </c>
-      <c r="D77" t="s">
-        <v>369</v>
-      </c>
-      <c r="E77" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>133</v>
       </c>
-      <c r="D78" t="s">
-        <v>371</v>
-      </c>
-      <c r="E78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>134</v>
       </c>
-      <c r="D79" t="s">
-        <v>334</v>
-      </c>
-      <c r="E79" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>120</v>
       </c>
-      <c r="D80" t="s">
-        <v>373</v>
-      </c>
-      <c r="E80" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>44</v>
       </c>
-      <c r="D81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>135</v>
       </c>
-      <c r="D82" t="s">
-        <v>375</v>
-      </c>
-      <c r="E82" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>36</v>
       </c>
-      <c r="D83" t="s">
-        <v>377</v>
-      </c>
-      <c r="E83" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>40</v>
       </c>
-      <c r="D84" t="s">
-        <v>379</v>
-      </c>
-      <c r="E84" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>136</v>
       </c>
-      <c r="D85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E85" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>43</v>
       </c>
-      <c r="D86" t="s">
-        <v>383</v>
-      </c>
-      <c r="E86" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>131</v>
       </c>
-      <c r="D87" t="s">
-        <v>385</v>
-      </c>
-      <c r="E87" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>44</v>
       </c>
-      <c r="D88" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>137</v>
       </c>
-      <c r="D89" t="s">
-        <v>387</v>
-      </c>
-      <c r="E89" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>45</v>
       </c>
-      <c r="D90" t="s">
-        <v>389</v>
-      </c>
-      <c r="E90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>138</v>
       </c>
-      <c r="D91" t="s">
-        <v>391</v>
-      </c>
-      <c r="E91" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>139</v>
       </c>
-      <c r="D92" t="s">
-        <v>393</v>
-      </c>
-      <c r="E92" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>140</v>
       </c>
-      <c r="D93" t="s">
-        <v>395</v>
-      </c>
-      <c r="E93" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>141</v>
       </c>
-      <c r="D94" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>142</v>
       </c>
-      <c r="D95" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>31</v>
       </c>
-      <c r="D96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E96" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>143</v>
       </c>
-      <c r="D97" t="s">
-        <v>401</v>
-      </c>
-      <c r="E97" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>144</v>
       </c>
-      <c r="D98" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>145</v>
       </c>
-      <c r="D99" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>146</v>
       </c>
-      <c r="D100" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>147</v>
       </c>
-      <c r="D101" t="s">
-        <v>406</v>
-      </c>
-      <c r="E101" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>148</v>
       </c>
-      <c r="D102" t="s">
-        <v>408</v>
-      </c>
-      <c r="E102" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>149</v>
       </c>
-      <c r="D103" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>31</v>
       </c>
-      <c r="D104" t="s">
-        <v>410</v>
-      </c>
-      <c r="E104" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>150</v>
       </c>
-      <c r="D105" t="s">
-        <v>412</v>
-      </c>
-      <c r="E105" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>151</v>
       </c>
-      <c r="D106" t="s">
-        <v>414</v>
-      </c>
-      <c r="E106" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>152</v>
       </c>
-      <c r="D107" t="s">
-        <v>416</v>
-      </c>
-      <c r="E107" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>153</v>
       </c>
-      <c r="D108" t="s">
-        <v>418</v>
-      </c>
-      <c r="E108" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>154</v>
       </c>
-      <c r="D109" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>31</v>
       </c>
@@ -3020,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E539F512-5AD7-47CD-B0D3-96FD3A76CCEC}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:C126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/docs/Project File Structure explanation.xlsx
+++ b/docs/Project File Structure explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim_Hegazi\Desktop\Eagles\Car_Clinic_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9A8BA-230A-49D8-91B0-A2B15159B627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B0E209-645D-4F63-BE9D-2092898B9A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Structure" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="275">
   <si>
     <t>File</t>
   </si>
@@ -976,6 +976,15 @@
   </si>
   <si>
     <t>Example inputs and outputs for testing/demo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Token Counter and Cost Approximator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Parquet Transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├── Merge Mail Maker</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE561C9-4085-4BBF-9FDB-09DA6CBD0C38}">
-  <dimension ref="A1:A132"/>
+  <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A137" sqref="A1:A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1962,41 +1971,56 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2009,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E539F512-5AD7-47CD-B0D3-96FD3A76CCEC}">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
